--- a/uploads/Parent_Upload_Template.xlsx
+++ b/uploads/Parent_Upload_Template.xlsx
@@ -18,49 +18,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
-    <t>father's_name</t>
-  </si>
-  <si>
-    <t>mother's_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>user_email</t>
-  </si>
-  <si>
-    <t>father's_profession</t>
-  </si>
-  <si>
-    <t>mother's_profession</t>
-  </si>
-  <si>
-    <t>father's_id</t>
-  </si>
-  <si>
-    <t>father's_id_type</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>zip_code</t>
-  </si>
-  <si>
-    <t>mobile_#</t>
-  </si>
-  <si>
-    <t>home_#</t>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Mother's Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Father's Profession</t>
+  </si>
+  <si>
+    <t>Mother's Profession</t>
+  </si>
+  <si>
+    <t>Father's Id</t>
+  </si>
+  <si>
+    <t>Father's Id Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Mobile #</t>
+  </si>
+  <si>
+    <t>Home #</t>
   </si>
   <si>
     <t>Father's Last Name</t>
